--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-vocabulary-filtered-attributes-compatible-with-import.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-vocabulary-filtered-attributes-compatible-with-import.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t xml:space="preserve">VOCABULARY_TYPE</t>
   </si>
@@ -28,10 +28,16 @@
     <t xml:space="preserve">Code</t>
   </si>
   <si>
+    <t xml:space="preserve">Internal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
     <t xml:space="preserve">ANTIBODY.DETECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">Protein detection system</t>
@@ -169,124 +175,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -300,13 +200,19 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -314,32 +220,41 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
